--- a/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01B13F-B030-E142-B749-28763D68D952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A32C8-8405-424D-8454-7A6B327C7144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,97 +1106,58 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[編集機能ボタン（ぼかし）]をタップ
+    <t>[編集機能ボタン（モザイク）]をタップ
 [編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
-画像をなぞると、なぞった部分がぼかし画像になること
-[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
-矩形をタップすると、ぼかしの有無が切り替わること
-[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
-[スライダ]を動かすと、ぼかし度合いが変化すること
+画像をなぞると、なぞった部分がモザイク画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のモザイク画像になること
+矩形をタップすると矩形の色が変化し、モザイクの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がモザイク画像になること
+[スライダ]を動かすと、モザイク度合いが変化すること
 [完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
     <rPh sb="1" eb="5">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="22" eb="24">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="31" eb="34">
+    <rPh sb="32" eb="35">
       <t>ガメn</t>
     </rPh>
     <rPh sb="43" eb="45">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
       <t>スライダガヒョウ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="54" eb="56">
       <t>ガゾウヲン</t>
     </rPh>
-    <rPh sb="86" eb="88">
+    <rPh sb="73" eb="75">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="95" eb="98">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="88" eb="89">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
       <t>クケイ</t>
     </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>エンケイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>キリカワル</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
+    <rPh sb="159" eb="161">
       <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="237" eb="239">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1205,7 +1166,7 @@
 [編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
 画像をなぞると、なぞった部分がぼかし画像になること
 [顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
-矩形をタップすると、ぼかしの有無が切り替わること
+矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
 [描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
 [スライダ]を動かすと、ぼかし度合いが変化すること
 [キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
@@ -1246,6 +1207,107 @@
       <t>ヘンシュウ</t>
     </rPh>
     <rPh sb="144" eb="146">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>クケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（ぼかし）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がぼかし画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
+矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
+[スライダ]を動かすと、ぼかし度合いが変化すること
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>キリカワル</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>モドリ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1255,57 +1317,7 @@
 [編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
 画像をなぞると、なぞった部分がモザイク画像になること
 [顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のモザイク画像になること
-矩形をタップすると、モザイクの有無が切り替わること
-[描画ボタン]をタップすると矩形が消え、なぞった部分がモザイク画像になること
-[スライダ]を動かすと、モザイク度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>エンケイ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[編集機能ボタン（モザイク）]をタップ
-[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
-画像をなぞると、なぞった部分がモザイク画像になること
-[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のモザイク画像になること
-矩形をタップすると、モザイクの有無が切り替わること
+矩形をタップすると矩形の色が変化し、モザイクの有無が切り替わること
 [描画ボタン]をタップすると矩形が消え、なぞった部分がモザイク画像になること
 [スライダ]を動かすと、モザイク度合いが変化すること
 [キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
@@ -1347,6 +1359,9 @@
     </rPh>
     <rPh sb="146" eb="148">
       <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>クケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -9932,7 +9947,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -10003,7 +10018,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
@@ -10068,7 +10083,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -10345,15 +10360,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10509,6 +10515,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10516,14 +10531,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10541,6 +10548,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
   <ds:schemaRefs>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A32C8-8405-424D-8454-7A6B327C7144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9EAF9-19C1-E54C-A30B-4E733EE464D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
   <si>
     <t>全項目</t>
   </si>
@@ -1106,8 +1106,156 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>[編集機能ボタン（ぼかし）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][なぞるボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がぼかし画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
+矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
+[スライダ]を動かすと、ぼかし度合いが変化すること
+[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>キリカワル</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>モドリ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（ぼかし）]をタップ
+[編集画面]が表示され、画面下部に[スライダ][なぞるボタン][顔認識ボタン]が表示されていること
+画像をなぞると、なぞった部分がぼかし画像になること
+[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
+矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
+[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
+[スライダ]を動かすと、ぼかし度合いが変化すること
+[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スライダガヒョウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガゾウヲン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ウゴカス</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ドアイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヘンカス</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>モドリ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>クケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>[編集機能ボタン（モザイク）]をタップ
-[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+[編集画面]が表示され、画面下部に[スライダ][なぞるボタン][顔認識ボタン]が表示されていること
 画像をなぞると、なぞった部分がモザイク画像になること
 [顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のモザイク画像になること
 矩形をタップすると矩形の色が変化し、モザイクの有無が切り替わること
@@ -1123,198 +1271,47 @@
     <rPh sb="32" eb="35">
       <t>ガメn</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="43" eb="44">
       <t>スライダガヒョウ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="55" eb="57">
       <t>ガゾウヲン</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="74" eb="76">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="88" eb="89">
+    <rPh sb="89" eb="90">
       <t>ウゴカス</t>
     </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="99" eb="101">
       <t>ドアイ</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="103" eb="105">
       <t>ヘンカス</t>
     </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="111" eb="113">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="130" eb="132">
+    <rPh sb="131" eb="133">
       <t>エンケイ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="140" eb="142">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="146" eb="148">
+    <rPh sb="147" eb="149">
       <t>ヒョウ</t>
     </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="155" eb="157">
       <t>クケイ</t>
     </rPh>
-    <rPh sb="159" eb="161">
+    <rPh sb="160" eb="162">
       <t>ヘンカス</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[編集機能ボタン（ぼかし）]をタップ
-[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
-画像をなぞると、なぞった部分がぼかし画像になること
-[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
-矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
-[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
-[スライダ]を動かすと、ぼかし度合いが変化すること
-[キャンセルボタン]をタップすると、[メイン画面]に戻り、編集前の画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>エンケイ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>クケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[編集機能ボタン（ぼかし）]をタップ
-[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
-画像をなぞると、なぞった部分がぼかし画像になること
-[顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のぼかし画像になること
-矩形をタップすると矩形の色が変化し、ぼかしの有無が切り替わること
-[描画ボタン]をタップすると矩形が消え、なぞった部分がぼかし画像になること
-[スライダ]を動かすと、ぼかし度合いが変化すること
-[完了ボタン]をタップすると、[メイン画面]に戻り、編集した画像が表示されていること</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>スライダガヒョウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ガゾウヲン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>エンケイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>キリカワル</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>ウゴカス</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ドアイ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>ヘンカス</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>モドリ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[編集機能ボタン（モザイク）]をタップ
-[編集画面]が表示され、画面下部に[スライダ][描画ボタン][顔認識ボタン]が表示されていること
+[編集画面]が表示され、画面下部に[スライダ][なぞるボタン][顔認識ボタン]が表示されていること
 画像をなぞると、なぞった部分がモザイク画像になること
 [顔認識ボタン]をタップすると、人の顔に矩形が表示され、矩形の内部が円形のモザイク画像になること
 矩形をタップすると矩形の色が変化し、モザイクの有無が切り替わること
@@ -1330,38 +1327,143 @@
     <rPh sb="32" eb="35">
       <t>ガメn</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="43" eb="44">
       <t>スライダガヒョウ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="55" eb="57">
       <t>ガゾウヲン</t>
     </rPh>
-    <rPh sb="73" eb="75">
+    <rPh sb="74" eb="76">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="88" eb="89">
+    <rPh sb="89" eb="90">
       <t>ウゴカス</t>
     </rPh>
-    <rPh sb="98" eb="100">
+    <rPh sb="99" eb="101">
       <t>ドアイ</t>
     </rPh>
-    <rPh sb="102" eb="104">
+    <rPh sb="103" eb="105">
       <t>ヘンカス</t>
     </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="111" eb="113">
       <t>カンリョウ</t>
     </rPh>
-    <rPh sb="130" eb="132">
+    <rPh sb="131" eb="133">
       <t>エンケイ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="140" eb="142">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="146" eb="148">
+    <rPh sb="147" eb="149">
       <t>ヒョウ</t>
     </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="155" eb="157">
       <t>クケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顔ぼかしON:緑
+顔ぼかしOFF:オレンジ</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顔モザイクON:緑
+顔モザイクOFF:オレンジ</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回編集時メッセージ</t>
+    <rPh sb="0" eb="5">
+      <t>ショカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン画面が開いている
+メイン画面に画像が表示されている
+アプリインストール後初回編集である</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[編集機能ボタン（任意）]をタップ、[編集画面]が表示される
+「モード切り替え↓」のアラートが表示される
+[OK]をタップ、アラートが消え、編集機能が利用できること</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>キエ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キノウガリイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>説明の詳細
+・なぞる：指でなぞってフィルタをかける
+・顔認識：顔をタップしてフィルタのオンオフを変更</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3334,7 +3436,7 @@
       </c>
       <c r="C10" s="32">
         <f>COUNT('D 編集'!A:A)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="54"/>
@@ -3366,7 +3468,7 @@
       </c>
       <c r="C12" s="45">
         <f>SUM(C7:C11)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="54"/>
       <c r="IO12" s="2"/>
@@ -3690,7 +3792,7 @@
   <dimension ref="B2:IU23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6030,7 +6132,6 @@
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B11&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
       <c r="E11" s="64"/>
@@ -6293,7 +6394,6 @@
         <v>0</v>
       </c>
       <c r="D12" s="32">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B12&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
       <c r="E12" s="64"/>
@@ -6556,7 +6656,6 @@
         <v>0</v>
       </c>
       <c r="D13" s="32">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B13&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
       <c r="E13" s="64"/>
@@ -6819,7 +6918,6 @@
         <v>0</v>
       </c>
       <c r="D14" s="32">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -7082,7 +7180,6 @@
         <v>0</v>
       </c>
       <c r="D15" s="32">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"-")- COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"o")- COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"n/a")</f>
         <v>0</v>
       </c>
       <c r="E15" s="64"/>
@@ -7346,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="45">
-        <f ca="1">SUM(D11:D15)</f>
+        <f>SUM(D11:D15)</f>
         <v>0</v>
       </c>
       <c r="E16" s="64"/>
@@ -9511,7 +9608,7 @@
   <dimension ref="A1:II17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -9789,7 +9886,7 @@
     <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9942,12 +10039,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C667D84-4B59-CC45-8230-4F79DB1549A9}">
-  <dimension ref="A1:II16"/>
+  <dimension ref="A1:II19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -10018,11 +10115,13 @@
         <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="23">
@@ -10048,7 +10147,9 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" ht="32">
@@ -10083,11 +10184,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="23">
@@ -10113,7 +10216,9 @@
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" ht="32">
@@ -10180,6 +10285,47 @@
       <c r="E16" s="72"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="32">
+      <c r="A17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="23">
+      <c r="A18" s="22">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="126">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{E7A23549-128E-964E-83C2-B22408A01551}"/>

--- a/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
+++ b/InstaExt/docs/InstaExt_TestScenario_Ver1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9EAF9-19C1-E54C-A30B-4E733EE464D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6303E2-B929-024A-ADE7-CEB8B3B81FC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>全項目</t>
   </si>
@@ -1464,6 +1464,13 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モード切り替えの説明を表示する</t>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -10044,7 +10051,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -10304,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="66"/>
@@ -10506,6 +10513,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10661,22 +10683,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10692,21 +10716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>